--- a/Data/aearep-763/candidatepackages.xlsx
+++ b/Data/aearep-763/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="194">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,78 +22,63 @@
     <t>outreg2</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>ivreg2</t>
   </si>
   <si>
     <t>unique</t>
   </si>
   <si>
+    <t>rd</t>
+  </si>
+  <si>
     <t>freduse</t>
   </si>
   <si>
-    <t>rd</t>
+    <t>estudy</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>estudy</t>
-  </si>
-  <si>
     <t>seq</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>seg</t>
+  </si>
+  <si>
     <t>ssi</t>
   </si>
   <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>seg</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
+    <t>dummies</t>
+  </si>
+  <si>
     <t>running</t>
   </si>
   <si>
-    <t>dummies</t>
-  </si>
-  <si>
-    <t>lars</t>
+    <t>kernel</t>
   </si>
   <si>
     <t>combine</t>
   </si>
   <si>
-    <t>kernel</t>
-  </si>
-  <si>
     <t>pre</t>
   </si>
   <si>
     <t>effects</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>zip</t>
   </si>
   <si>
@@ -118,9 +103,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-763</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-763/118462/fig</t>
   </si>
   <si>
@@ -133,18 +115,9 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-763/118462/tab</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-763/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>fig2_prep1.do</t>
   </si>
   <si>
@@ -623,9 +596,6 @@
   </si>
   <si>
     <t>tabA7_prep5.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -669,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -677,13 +647,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -691,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -703,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -715,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -727,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -739,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -751,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -763,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -775,10 +745,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>279</v>
+        <v>411</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.13586777448654175</v>
       </c>
       <c r="D9"/>
     </row>
@@ -787,10 +757,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>300</v>
+        <v>499</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D10"/>
     </row>
@@ -799,10 +769,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>385</v>
+        <v>563</v>
       </c>
       <c r="C11">
-        <v>0.12765252590179443</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D11"/>
     </row>
@@ -811,10 +781,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="C12">
-        <v>0.18070292472839355</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D12"/>
     </row>
@@ -823,10 +793,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>564</v>
+        <v>644</v>
       </c>
       <c r="C13">
-        <v>0.18700265884399414</v>
+        <v>0.2128925621509552</v>
       </c>
       <c r="D13"/>
     </row>
@@ -835,10 +805,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>565</v>
+        <v>671</v>
       </c>
       <c r="C14">
-        <v>0.18733422458171844</v>
+        <v>0.22181817889213562</v>
       </c>
       <c r="D14"/>
     </row>
@@ -847,10 +817,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="C15">
-        <v>0.18766577541828156</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D15"/>
     </row>
@@ -859,10 +829,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>587</v>
+        <v>875</v>
       </c>
       <c r="C16">
-        <v>0.19462864100933075</v>
+        <v>0.28925618529319763</v>
       </c>
       <c r="D16"/>
     </row>
@@ -871,10 +841,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>745</v>
+        <v>884</v>
       </c>
       <c r="C17">
-        <v>0.24701590836048126</v>
+        <v>0.29223141074180603</v>
       </c>
       <c r="D17"/>
     </row>
@@ -883,10 +853,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>797</v>
+        <v>1368</v>
       </c>
       <c r="C18">
-        <v>0.2642572820186615</v>
+        <v>0.45223140716552734</v>
       </c>
       <c r="D18"/>
     </row>
@@ -895,10 +865,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1077</v>
+        <v>1414</v>
       </c>
       <c r="C19">
-        <v>0.35709547996520996</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D19"/>
     </row>
@@ -907,10 +877,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1124</v>
+        <v>1428</v>
       </c>
       <c r="C20">
-        <v>0.37267905473709106</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D20"/>
     </row>
@@ -919,10 +889,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1423</v>
+        <v>1497</v>
       </c>
       <c r="C21">
-        <v>0.47181698679924011</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D21"/>
     </row>
@@ -931,10 +901,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1476</v>
+        <v>1658</v>
       </c>
       <c r="C22">
-        <v>0.48938992619514465</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D22"/>
     </row>
@@ -943,10 +913,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1553</v>
+        <v>2142</v>
       </c>
       <c r="C23">
-        <v>0.51492041349411011</v>
+        <v>0.70809918642044067</v>
       </c>
       <c r="D23"/>
     </row>
@@ -955,10 +925,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1660</v>
+        <v>2436</v>
       </c>
       <c r="C24">
-        <v>0.55039787292480469</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D24"/>
     </row>
@@ -967,72 +937,12 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1798</v>
+        <v>2495</v>
       </c>
       <c r="C25">
-        <v>0.5961538553237915</v>
+        <v>0.82479339838027954</v>
       </c>
       <c r="D25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1817</v>
-      </c>
-      <c r="C26">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1859</v>
-      </c>
-      <c r="C27">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>2247</v>
-      </c>
-      <c r="C28">
-        <v>0.74502652883529663</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>2424</v>
-      </c>
-      <c r="C29">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>2427</v>
-      </c>
-      <c r="C30">
-        <v>0.80470824241638184</v>
-      </c>
-      <c r="D30"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1040,1319 +950,1295 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B164"/>
+  <dimension ref="A1:B161"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B92" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B102" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B103" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B105" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B107" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B108" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B109" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B110" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B111" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B112" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B113" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B114" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B115" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B116" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B117" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B118" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B119" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B120" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B121" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B122" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B123" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B124" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B125" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B126" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B127" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B128" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B129" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B130" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B132" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B133" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B134" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B135" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B136" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B137" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B138" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B139" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B140" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B141" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B142" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B143" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B144" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B145" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B146" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B147" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B148" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B149" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B150" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B151" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B152" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B153" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B154" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B155" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B156" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B157" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B158" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B159" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B160" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B161" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>38</v>
-      </c>
-      <c r="B162" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>38</v>
-      </c>
-      <c r="B163" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>39</v>
-      </c>
-      <c r="B164" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
